--- a/Pytest/Data/Test_Case.xlsx
+++ b/Pytest/Data/Test_Case.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonic/Project/Python/MyFrame_API/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonic/Project/Python/Pytest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE3C99A-8340-3144-940A-09F20A05FB61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589686F7-0A2A-7D40-9D7E-BD97ACACA6F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="6180" windowWidth="20580" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>method</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,10 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>parameter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>asc-0001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -80,14 +77,6 @@
     <t>asc-0002</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8888/login?name=yuhang&amp;pw=111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/login?name=yuhang&amp;pw=999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>asc-0003</t>
   </si>
   <si>
@@ -117,6 +106,22 @@
   </si>
   <si>
     <t>message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"0"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8888/login?name=yuhang&amp;pw=111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:8888/login?name=yuhang&amp;pw=999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -177,7 +182,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -500,13 +504,13 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" customWidth="1"/>
     <col min="4" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
@@ -530,35 +534,37 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>0</v>
       </c>
@@ -566,66 +572,66 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -662,7 +668,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{3052D6AA-D9D2-3846-AF7D-08B4E31FC892}"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://127.0.0.1:8888/login?name=yuhang&amp;pw=111" xr:uid="{3052D6AA-D9D2-3846-AF7D-08B4E31FC892}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -672,4 +678,35 @@
     <oddFooter>&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474963D9-2E05-DF48-A01D-07F7FF41615C}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>